--- a/doc/log/log_201608040221_王宏飞.xlsx
+++ b/doc/log/log_201608040221_王宏飞.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F5760D86-6FB7-45B8-BF2E-66AF09227545}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,13 +73,29 @@
   </si>
   <si>
     <t>运行时出错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.新建实体类；2.数据库表自动生成；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.实体类新建成功2.数据库表声称成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体结构还不是很理解，还需学习加强</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -400,11 +417,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -450,6 +467,23 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43237</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -458,7 +492,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/doc/log/log_201608040221_王宏飞.xlsx
+++ b/doc/log/log_201608040221_王宏飞.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F5760D86-6FB7-45B8-BF2E-66AF09227545}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{547CA5A7-EDCF-4453-A81A-2A93EB3DF87F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,15 +80,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.新建实体类；2.数据库表自动生成；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.实体类新建成功2.数据库表声称成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>整体结构还不是很理解，还需学习加强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.修正代码修改错误；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.修正代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码还是有问题，还需请教高手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.数据库表自动生成；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.新建实体类；2.修正代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.实体类新建成功；2.代码修正完毕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库表自动生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.数据库表声称成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -469,19 +497,53 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43237</v>
+        <v>43235</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43236</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43237</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
